--- a/Toeic Test Result.xlsx
+++ b/Toeic Test Result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Private\Github\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4D0CC5-30E1-41C9-91B6-54F964BD1A34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE01A3-553A-4073-A957-918252F62278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{12AD4287-8134-4218-AA5C-6842D8F962AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12AD4287-8134-4218-AA5C-6842D8F962AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023_test 1" sheetId="1" r:id="rId1"/>
+    <sheet name="part 7" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -284,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
   <si>
     <t>C</t>
   </si>
@@ -314,6 +315,12 @@
   </si>
   <si>
     <t>FIREPLACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dạng 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mục đích chính của bài viết </t>
   </si>
 </sst>
 </file>
@@ -390,8 +397,97 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317895</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FC1219-4ED7-4213-A395-5FBD4C65EE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584200" y="565150"/>
+          <a:ext cx="3391295" cy="3790271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>281230</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A704DB-E5D7-4A76-8A81-E725AD6FA4FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4273549" y="556634"/>
+          <a:ext cx="7590081" cy="3780416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655F0DDF-1B32-46C2-9216-2FC55073B863}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1078,10 +1174,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>146</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1359,4 +1455,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8A6E05-AFDB-4E96-9660-A36DCBDB4DF8}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Toeic Test Result.xlsx
+++ b/Toeic Test Result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Private\Github\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE01A3-553A-4073-A957-918252F62278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F55A347-16BF-41CF-89A7-FCF7350A8F92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12AD4287-8134-4218-AA5C-6842D8F962AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023_test 1" sheetId="1" r:id="rId1"/>
-    <sheet name="part 7" sheetId="2" r:id="rId2"/>
+    <sheet name="2023_test 2" sheetId="3" r:id="rId2"/>
+    <sheet name="part 7" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>C</t>
   </si>
@@ -321,13 +322,97 @@
   </si>
   <si>
     <t xml:space="preserve">mục đích chính của bài viết </t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>Consider</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Dislike</t>
+  </si>
+  <si>
+    <t>Appreciate</t>
+  </si>
+  <si>
+    <t>Enjoy</t>
+  </si>
+  <si>
+    <t>Anticipate</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>Discuss</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Admit</t>
+  </si>
+  <si>
+    <t>Advise</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>ASK</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>Afford</t>
+  </si>
+  <si>
+    <t>Appear</t>
+  </si>
+  <si>
+    <t>Arrange</t>
+  </si>
+  <si>
+    <t>Defend</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Learn</t>
+  </si>
+  <si>
+    <t>Attempt</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,13 +441,66 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,9 +515,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655F0DDF-1B32-46C2-9216-2FC55073B863}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1458,11 +1621,201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845C02CE-50F4-4AF0-B9FF-45AB471D7261}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8A6E05-AFDB-4E96-9660-A36DCBDB4DF8}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1475,7 +1828,169 @@
         <v>11</v>
       </c>
     </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B27:B50">
+    <sortCondition ref="B27:B50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Toeic Test Result.xlsx
+++ b/Toeic Test Result.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Private\Github\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F55A347-16BF-41CF-89A7-FCF7350A8F92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77044FD-74AC-48C9-90A4-1ED82B9219D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12AD4287-8134-4218-AA5C-6842D8F962AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{12AD4287-8134-4218-AA5C-6842D8F962AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023_test 1" sheetId="1" r:id="rId1"/>
     <sheet name="2023_test 2" sheetId="3" r:id="rId2"/>
-    <sheet name="part 7" sheetId="2" r:id="rId3"/>
+    <sheet name="2023 Test 4" sheetId="4" r:id="rId3"/>
+    <sheet name="2023 test 5" sheetId="5" r:id="rId4"/>
+    <sheet name="2023 test 7" sheetId="6" r:id="rId5"/>
+    <sheet name="20023 test 8" sheetId="7" r:id="rId6"/>
+    <sheet name="part 7" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="41">
   <si>
     <t>C</t>
   </si>
@@ -406,13 +410,16 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>sai 4 part 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +489,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -515,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -543,6 +564,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1624,7 +1649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845C02CE-50F4-4AF0-B9FF-45AB471D7261}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1811,6 +1836,590 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E22098-272A-4482-B7D5-2F32EE13886E}">
+  <dimension ref="A101:E130"/>
+  <sheetViews>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" s="13">
+        <v>45460</v>
+      </c>
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B182324C-2DB1-441A-AB6B-D9335FCA4DD5}">
+  <dimension ref="A1:G130"/>
+  <sheetViews>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G1" s="9">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="10"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F3396E-80F4-44D6-9283-B994D2B7460B}">
+  <dimension ref="F1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F1" s="9">
+        <v>45468</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7B9D92-5DCD-4F72-9EDC-249C56399D5C}">
+  <dimension ref="A1:I130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="15"/>
+    <col min="2" max="2" width="8.7265625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="9">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8A6E05-AFDB-4E96-9660-A36DCBDB4DF8}">
   <dimension ref="A2:F50"/>
   <sheetViews>

--- a/Toeic Test Result.xlsx
+++ b/Toeic Test Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Private\Github\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77044FD-74AC-48C9-90A4-1ED82B9219D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7CE873-CCD6-4C07-979A-E4B40EC897BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{12AD4287-8134-4218-AA5C-6842D8F962AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{12AD4287-8134-4218-AA5C-6842D8F962AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023_test 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="2023 test 5" sheetId="5" r:id="rId4"/>
     <sheet name="2023 test 7" sheetId="6" r:id="rId5"/>
     <sheet name="20023 test 8" sheetId="7" r:id="rId6"/>
-    <sheet name="part 7" sheetId="2" r:id="rId7"/>
+    <sheet name="2023 test 9" sheetId="8" r:id="rId7"/>
+    <sheet name="part 7" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -290,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="41">
   <si>
     <t>C</t>
   </si>
@@ -2230,7 +2231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7B9D92-5DCD-4F72-9EDC-249C56399D5C}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
@@ -2420,6 +2421,142 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADD9DCF-CD29-4B65-840A-31AF7F9D42A1}">
+  <dimension ref="A1:G120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="6" width="8.7265625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="9">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8A6E05-AFDB-4E96-9660-A36DCBDB4DF8}">
   <dimension ref="A2:F50"/>
   <sheetViews>
